--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/sirmod/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB06CC7-7AE9-AC4B-AF7F-46DB65883595}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ADCA59-2E25-3243-8461-B6074A622ABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="988" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="988" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Populations" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Partnerships &amp; transitions" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3887,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -3944,14 +3943,16 @@
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <v>0.08</v>
+      </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -3970,14 +3971,16 @@
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>0.06</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -3996,14 +3999,16 @@
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>0.03</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
         <v>0.03</v>
       </c>
-      <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -4022,14 +4027,16 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>0.08</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="I7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>0.1</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -4048,14 +4055,16 @@
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>0.06</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="I8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>0.08</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -4074,14 +4083,16 @@
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
+        <v>0.04</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -4103,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -4162,7 +4173,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -4186,7 +4197,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -4430,7 +4441,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
